--- a/hotel_cleaning_now.xlsx
+++ b/hotel_cleaning_now.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="7月" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="8月" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1月" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:AI7"/>
+  <dimension ref="A3:AI115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,27 +629,23 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>C/I</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>C/O</t>
         </is>
@@ -658,27 +653,23 @@
       <c r="AI4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>カスボケ</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>C/I</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+          <t>0202</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
         <is>
           <t>C/O</t>
         </is>
@@ -686,32 +677,23 @@
       <c r="AI5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>C/I</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+          <t>0203</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
         <is>
           <t>C/O</t>
         </is>
@@ -719,124 +701,15 @@
       <c r="AI6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1012</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C/I</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>×</t>
+          <t>0204</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>〇</t>
+          <t>C/I</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -846,314 +719,2602 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>〇</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>×</t>
+          <t>C/O</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:AI4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
-  </cols>
-  <sheetData>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>氏名</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>部屋番号</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>エコプラン</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1012</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>×</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>C/O</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0206</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0207</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0208</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0209</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0212</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0213</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0214</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0306</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0311</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0312</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0313</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0314</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0403</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0406</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0412</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0503</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0504</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0508</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0510</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0511</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0512</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0513</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0514</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0516</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0601</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0602</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0604</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0608</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0610</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0611</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0612</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0701</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0704</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0706</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0708</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0709</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0712</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0713</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0801</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0808</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0809</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0816</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0901</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0902</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0904</t>
+        </is>
+      </c>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0908</t>
+        </is>
+      </c>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0909</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0912</t>
+        </is>
+      </c>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0913</t>
+        </is>
+      </c>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0915</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2203</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2210</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2211</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2212</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2213</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2218</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2313</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2314</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2317</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2318</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2402</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2403</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2406</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2410</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2411</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2412</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2414</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2416</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2503</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2505</t>
+        </is>
+      </c>
+      <c r="AD90" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2506</t>
+        </is>
+      </c>
+      <c r="AD91" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2507</t>
+        </is>
+      </c>
+      <c r="AD92" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2508</t>
+        </is>
+      </c>
+      <c r="AD93" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2509</t>
+        </is>
+      </c>
+      <c r="AD94" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2512</t>
+        </is>
+      </c>
+      <c r="AD95" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2514</t>
+        </is>
+      </c>
+      <c r="AD96" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2515</t>
+        </is>
+      </c>
+      <c r="AD97" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2602</t>
+        </is>
+      </c>
+      <c r="AD98" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE98" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="AD99" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="AD100" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2611</t>
+        </is>
+      </c>
+      <c r="AD101" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE101" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="AD102" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2615</t>
+        </is>
+      </c>
+      <c r="AD103" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2617</t>
+        </is>
+      </c>
+      <c r="AD104" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2702</t>
+        </is>
+      </c>
+      <c r="AD105" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE105" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2706</t>
+        </is>
+      </c>
+      <c r="AD106" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE106" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2708</t>
+        </is>
+      </c>
+      <c r="AD107" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2710</t>
+        </is>
+      </c>
+      <c r="AD108" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE108" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2711</t>
+        </is>
+      </c>
+      <c r="AD109" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE109" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2713</t>
+        </is>
+      </c>
+      <c r="AD110" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE110" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2714</t>
+        </is>
+      </c>
+      <c r="AD111" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2715</t>
+        </is>
+      </c>
+      <c r="AD112" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE112" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="AD113" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2718</t>
+        </is>
+      </c>
+      <c r="AD114" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2719</t>
+        </is>
+      </c>
+      <c r="AD115" t="inlineStr">
+        <is>
+          <t>C/I</t>
+        </is>
+      </c>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>C/O</t>
+        </is>
+      </c>
+      <c r="AI115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
